--- a/vd1.xlsx
+++ b/vd1.xlsx
@@ -14,87 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>EES</t>
-  </si>
-  <si>
-    <t>Loại tiên chuẩn Tae</t>
-  </si>
-  <si>
-    <t>“Tiêu chuẩn hị ký số của khá</t>
-  </si>
-  <si>
-    <t>Yeu cầu bảo mật cho thẻ SIM</t>
-  </si>
-  <si>
-    <t>Giao điện dich vụ Web</t>
-  </si>
-  <si>
-    <t>Khung bảo mat</t>
-  </si>
-  <si>
-    <t>Thông số kỹ thuật chuyên. vùng</t>
-  </si>
-  <si>
-    <t>Ký hiệu tiêu chuẩn</t>
-  </si>
-  <si>
-    <t>ch hàng</t>
-  </si>
-  <si>
-    <t>FIPS PUB 140-2  TCVN 8709 SOMEC 15408)</t>
-  </si>
-  <si>
-    <t>ETSITR 102 203</t>
-  </si>
-  <si>
-    <t>ETSITS 102 204</t>
-  </si>
-  <si>
-    <t>ETSITR 102 206</t>
-  </si>
-  <si>
-    <t>ETSI TS 102 207</t>
-  </si>
-  <si>
-    <t>——————— quản lý khóa bi mật, chứn</t>
-  </si>
-  <si>
-    <t>Security Requirements for Cryptographic Modules  Công nghệ thông tin - Các kỹ thuật an toàn - Các tiêu chi đánh giá an toàn công, nghệ thông tin (Common Criteria for Information Technology Security Evaluation)</t>
-  </si>
-  <si>
-    <t>Mobile Commerce (M- COMM); Mobile  Signatures; Business and Functional Requirements</t>
-  </si>
-  <si>
-    <t>Mobile Commerce (M- COMM); Mobile Signature Service; Web Service Interface</t>
-  </si>
-  <si>
-    <t>Mobile Commerce (M- COMM); Mobile Signature Service;  | Security Framework -</t>
-  </si>
-  <si>
-    <t>Mobile Commerce (M- COMM); Mobile Signature Service; Specifications for Roaming in Mobile Signature Services</t>
-  </si>
-  <si>
-    <t>Quy định áp dụng</t>
-  </si>
-  <si>
-    <t>Po  g thư số và tạo chir</t>
-  </si>
-  <si>
-    <t>~ Ap dụng một trong hai tiêu chuẩn.  - Đấi với tiêu chuẩn FIPS PUB 140-2:  'Yêu cầu tối thiểu mức 2 (level 2)     - Đối với tiêu chuẩn TCVN 8709 (ISO/IEC 15408  Yêu cầu tối thiêu EAL mức 4 (level 4)</t>
-  </si>
-  <si>
-    <t>Phiên bản V1.1.1</t>
-  </si>
-  <si>
-    <t>Phiên bản V1.1.4</t>
-  </si>
-  <si>
-    <t>Phiên bản V1.1.3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Chư</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>ơng trình khung huần luyện nhóm Í</t>
+  </si>
+  <si>
+    <t>NỘI DUNG HUÁN LUYỆN</t>
+  </si>
+  <si>
+    <t>Hệ thống chính sách, pháp luật về an toàn, vệ sinh lao động</t>
+  </si>
+  <si>
+    <t>Tổng quan về hệ thông văn bản quy phạm     pháp luật về an toàn, vệ sinh lao động.</t>
+  </si>
+  <si>
+    <t>Hệ thống tiêu chuẩn, quy chuẩn kỹ thuật an     toàn, vệ sinh lao động.</t>
+  </si>
+  <si>
+    <t>Các quy định cụ thê của các cơ quan quản lý nhả nước về an toàn, vệ sinh lao động khi xây dựng mới, mở rộng hoặc cải tạo các công trình, các cơ sở để sản xuất, sử dụng, báo quản, lưu giữ và kiểm định các loại máy, thiết bị, vật tư,  các chât có yêu câu nghiêm ngặt về an toàn, vệ     sinh lao động.</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ công tác an toàn, vệ sinh lao động</t>
+  </si>
+  <si>
+    <t>Tô chức bộ máy, quản lý và thực hiện các quy định về an toàn, vệ sinh lao động ở cơ sở; phân  định trách nhiệm và giao quyền hạn về công     tác an toàn, vệ sinh lao động.</t>
+  </si>
+  <si>
+    <t>Kiên thức cơ bản về các yếu tô nguy hiểm, có ại, biện pháp phòng ngừa.</t>
+  </si>
+  <si>
+    <t>Phương pháp cải thiện điều kiện lao động.</t>
+  </si>
+  <si>
+    <t>Văn hóa an toàn trong sản xuất, kinh doanh.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kết thúc khóa huấn luyện</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Thời  Tổng số</t>
+  </si>
+  <si>
+    <t>gian hui:  Lý thuyết</t>
+  </si>
+  <si>
+    <t>ìn luyện  Trong đ‹  Thực hành</t>
+  </si>
+  <si>
+    <t>(giờ)  Kiếm tra</t>
   </si>
 </sst>
 </file>
@@ -452,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -477,13 +456,22 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -491,115 +479,110 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
